--- a/earlywarning-pom/Document/test/RETAIL/Unit Test_Rapporto avanzamento non regression test App2.0_Retail.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/Unit Test_Rapporto avanzamento non regression test App2.0_Retail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\ISP\git\client-intesa\client-intesa\earlywarning-pom\Document\test\RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
-    <pivotCache cacheId="17" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="134">
   <si>
     <t>Applicazione</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Tabelle</t>
   </si>
   <si>
-    <t>su tabella di output (aggregato)</t>
-  </si>
-  <si>
     <t>Query di esempio</t>
   </si>
   <si>
@@ -464,9 +461,6 @@
   </si>
   <si>
     <t>ETL</t>
-  </si>
-  <si>
-    <t>OUTPUT_WEB_xxx_NEW_TEST *</t>
   </si>
   <si>
     <t>* xxx indica il nome della banca</t>
@@ -476,9 +470,6 @@
 Una tantum per tutte le banche</t>
   </si>
   <si>
-    <t>OUTPUT_WEB_BE_ddmmyyyy</t>
-  </si>
-  <si>
     <t>CUSTOMER_TABLE_ESTERE_ddmmyyyy</t>
   </si>
   <si>
@@ -503,36 +494,18 @@
     <t xml:space="preserve">Non ci siano differenze in termini di colore </t>
   </si>
   <si>
-    <t>Modulo HighPriority</t>
-  </si>
-  <si>
-    <t>colore HighPriority</t>
-  </si>
-  <si>
     <t>Modulo NOPG</t>
   </si>
   <si>
-    <t>colore NOPG</t>
-  </si>
-  <si>
-    <t>score di modulo</t>
-  </si>
-  <si>
     <t>Non ci siano differenze in termini di score</t>
   </si>
   <si>
     <t>Score XRA</t>
   </si>
   <si>
-    <t>colore modulo</t>
-  </si>
-  <si>
     <t>Color XRA</t>
   </si>
   <si>
-    <t>colore matrice di rischio</t>
-  </si>
-  <si>
     <t>Totale complessivo</t>
   </si>
   <si>
@@ -557,42 +530,9 @@
     <t>Score Bilancio Familiare</t>
   </si>
   <si>
-    <t>Modulo Qualitativo</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.1</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.4</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.5</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.9</t>
-  </si>
-  <si>
     <t>Modulo Segnali Gravi di Rischio</t>
   </si>
   <si>
-    <t>colore sottomodulo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sottomodulo SGR - Socio società a sofferenza presso altri  </t>
   </si>
   <si>
@@ -626,37 +566,85 @@
     <t>Modulo Insoluti</t>
   </si>
   <si>
-    <t>colore Qualitativo</t>
-  </si>
-  <si>
     <t>Color CRAFI_XRA_BIFA</t>
   </si>
   <si>
     <t>Score_CRAFI_XRA_BIFA</t>
   </si>
   <si>
-    <t>Score(Integrazione Moduli CRAFI_XRA_BILFAM)</t>
-  </si>
-  <si>
-    <t>Colore(Integrazione Moduli CRAFI_XRA_BILFAM)</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.10</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.11</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.12</t>
-  </si>
-  <si>
-    <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale </t>
+  </si>
+  <si>
+    <t>su tabella di output (check)</t>
+  </si>
+  <si>
+    <t>su tabella di output (numerosità per singolo elemento)</t>
+  </si>
+  <si>
+    <t>Semaforo HighPriority</t>
+  </si>
+  <si>
+    <t>Semaforo Qualitativo</t>
+  </si>
+  <si>
+    <t>Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score</t>
+  </si>
+  <si>
+    <t>Colore semaforo Statistico</t>
+  </si>
+  <si>
+    <t>Colore semaforo Qualitativo</t>
+  </si>
+  <si>
+    <t>Colore semaforo HighPriority</t>
+  </si>
+  <si>
+    <t>Colore matrice di rischio</t>
+  </si>
+  <si>
+    <t>Colore modulo</t>
+  </si>
+  <si>
+    <t>Colore sottomodulo</t>
+  </si>
+  <si>
+    <t>Score di modulo</t>
+  </si>
+  <si>
+    <t>Score Statistico</t>
+  </si>
+  <si>
+    <t>Score BILFAM_NOSTIP</t>
+  </si>
+  <si>
+    <t>Score BILFAM_SISTIP</t>
+  </si>
+  <si>
+    <t>Non ci siano differenze in termini di numero</t>
+  </si>
+  <si>
+    <t>Business Rules</t>
+  </si>
+  <si>
+    <t>Non ci siano differenze in termine di flag (accensione segnale)</t>
+  </si>
+  <si>
+    <t>check BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covenant </t>
+  </si>
+  <si>
+    <t>flag Covenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per ogni sndg sarà verificata puntualmente l'uguaglianza tra le BR del modulo prima e dopo l'introduzione della nuova app 2.0 </t>
+  </si>
+  <si>
+    <t>OUTPUT_WEB_RETAIL_20170710</t>
+  </si>
+  <si>
+    <t>OUTPUT_RETAIL_TEST</t>
   </si>
 </sst>
 </file>
@@ -666,7 +654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,8 +792,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,8 +854,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1269,13 +1269,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1492,8 +1505,28 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1520,22 +1553,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,8 +1611,30 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2530,7 +2569,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2547,7 +2586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="411480" y="662940"/>
-          <a:ext cx="13670280" cy="8717280"/>
+          <a:ext cx="14706600" cy="10302240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5721,6 +5760,861 @@
             </a:rPr>
             <a:t> check_COLOR_BILFAM</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p.SCORE_CRAFI= t. SCORE_CRAFI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (t.SCORE_CRAFI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AND</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p.SCORE_CRAFI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_SCORE_CRAFI,  count(*)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p.SCORE_XRA= t. SCORE_XRA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (t.SCORE_XRA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AND</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p.SCORE_XRA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_SCORE_XRA,  count(*)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p.SCORE_BILFAM= t. SCORE_BILFAM </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (t.SCORE_BILFAM </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AND</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p.SCORE_BILFAM </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_SCORE_BILFAM,  count(*)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p.SCORE_STATISTICO= t. SCORE_STATISTICO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_SCORE_STATISTICO,  count(*)</a:t>
+          </a:r>
           <a:endParaRPr lang="it-IT" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5850,18 +6744,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6308,18 +7190,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6355,18 +7225,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6402,18 +7260,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6449,18 +7295,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6496,18 +7330,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6543,18 +7365,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6590,18 +7400,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6637,18 +7435,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="it-IT" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6672,9 +7458,634 @@
             </a:rPr>
             <a:t> check_COLOR_BILFAM = 0</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>check_SCORE_CRAFI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>check_SCORE_XRA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>check_SCORE_BILFAM </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>check_SCORE_STATISTICO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082AB02D-1E03-4C16-94DA-1DBBEA427454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="11551920"/>
+          <a:ext cx="7840980" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>t.color_app,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p.color_app </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> t.color_app = p.color_app </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_color_app</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" i="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OUTPUT_RETAIL_TEST t</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>join</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OUTPUT_WEB_RETAIL_20170710  p </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p.sndg = t.sndg</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>check_color_app</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100" i="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6684,7 +8095,61 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42928.635714699078" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="81">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42929.397549768517" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Note fornitore" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Ok"/>
+        <m/>
+        <s v="Da eseguire" u="1"/>
+        <s v="ko" u="1"/>
+        <s v="In esecuzione" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42929.39755011574" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -6693,7 +8158,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="78"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -6744,64 +8209,392 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42928.635715393517" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="81">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="78"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="Ok"/>
-        <m/>
-        <s v="Da eseguire" u="1"/>
-        <s v="ko" u="1"/>
-        <s v="In esecuzione" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="1"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="2"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti per Final Color"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="3"/>
+    <s v="Matrice di Rischio"/>
+    <m/>
+    <s v="colore matrice di rischio"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="4"/>
+    <s v="Modulo HighPriority"/>
+    <m/>
+    <s v="colore HighPriority"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="5"/>
+    <s v="Modulo NOPG"/>
+    <m/>
+    <s v="colore NOPG"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 "/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="6"/>
+    <s v="Modulo Segnali Gravi di Rischio"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="7"/>
+    <s v="Sottomodulo SGR - garanzie attivate con esito negativo"/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="8"/>
+    <s v="Sottomodulo SGR - Socio società a sofferenza presso altri  "/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="9"/>
+    <s v="Sottomodulo SGR - Socio società a sofferenza presso ISP  "/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="10"/>
+    <s v="Sottomodulo SGR - Garanzie a favore soggetti in sofferenza   "/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="11"/>
+    <s v="Modulo Rate Impagate"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="12"/>
+    <s v="Sottomodulo Rate Impagate su CC"/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="13"/>
+    <s v="Sottomodulo Rate Impagate RID/MAV"/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.9"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="14"/>
+    <s v="Modulo Cessioni del Quinto"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.10"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="15"/>
+    <s v="Modulo Sconfino CC"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.11"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="16"/>
+    <s v="Modulo Sconfino Forborne"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.12"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="17"/>
+    <s v="Modulo Insoluti"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.13"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="18"/>
+    <s v="Modulo Qualitativo"/>
+    <m/>
+    <s v="colore Qualitativo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="19"/>
+    <s v="Color XRA"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.1"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="20"/>
+    <s v="Color CR Alzo Zero + AFI"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="21"/>
+    <s v="Color Bilancio Familiare"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="22"/>
+    <s v="Score XRA"/>
+    <m/>
+    <s v="score di modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.4"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="23"/>
+    <s v="Score CR Alzo Zero + AFI"/>
+    <m/>
+    <s v="score di modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.5"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="24"/>
+    <s v="Score Bilancio Familiare"/>
+    <m/>
+    <s v="score di modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="25"/>
+    <s v="Color CRAFI_XRA_BIFA"/>
+    <m/>
+    <s v="Colore(Integrazione Moduli CRAFI_XRA_BILFAM)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7"/>
+    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="26"/>
+    <s v="Score_CRAFI_XRA_BIFA"/>
+    <m/>
+    <s v="Score(Integrazione Moduli CRAFI_XRA_BILFAM)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8"/>
+    <s v="Non ci siano differenze in termini di score"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="1"/>
     <s v="Final Score"/>
     <m/>
@@ -6815,12 +8608,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="2"/>
     <s v="Final Score"/>
     <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
+    <s v="numerosità controparti per Final Color"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -6829,13 +8622,13 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="3"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale e segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="Matrice di Rischio"/>
+    <m/>
+    <s v="colore matrice di rischio"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -6843,7 +8636,7 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="4"/>
     <s v="Modulo HighPriority"/>
     <m/>
@@ -6857,12 +8650,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="5"/>
-    <s v="Matrice di Rischio"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Modulo NOPG"/>
+    <m/>
+    <s v="colore NOPG"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 "/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -6871,12 +8664,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="6"/>
-    <s v="Color CR Alzo Zero"/>
+    <s v="Modulo Segnali Gravi di Rischio"/>
     <m/>
     <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -6885,12 +8678,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="7"/>
-    <s v="Color CR Sistema "/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Sottomodulo SGR - garanzie attivate con esito negativo"/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -6899,12 +8692,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="8"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Sottomodulo SGR - Socio società a sofferenza presso altri  "/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -6913,12 +8706,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="9"/>
-    <s v="Matrix_Colore_CR"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CR0 e CRSYS)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Sottomodulo SGR - Socio società a sofferenza presso ISP  "/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -6927,13 +8720,13 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="10"/>
-    <s v="Score CR Alzo Zero"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
+    <s v="Sottomodulo SGR - Garanzie a favore soggetti in sofferenza   "/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6"/>
+    <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -6941,13 +8734,13 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="11"/>
-    <s v="Score CR Sistema"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
+    <s v="Modulo Rate Impagate"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7"/>
+    <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -6955,13 +8748,13 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="12"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
+    <s v="Sottomodulo Rate Impagate su CC"/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8"/>
+    <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -6969,13 +8762,13 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="13"/>
-    <s v="Matrix_Score_CR_XRA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CR_XRA)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
+    <s v="Sottomodulo Rate Impagate RID/MAV"/>
+    <m/>
+    <s v="colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.9"/>
+    <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -6983,12 +8776,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="14"/>
-    <s v="Modulo Carta Commerciale"/>
-    <m/>
-    <s v="colore carta commerciale"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
+    <s v="Modulo Cessioni del Quinto"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.10"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -6997,12 +8790,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="15"/>
-    <s v="Modulo Preammortamenti"/>
-    <m/>
-    <s v="colore preammortamenti"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
+    <s v="Modulo Sconfino CC"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.11"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7011,12 +8804,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="16"/>
-    <s v="Modulo Dati di Mercato"/>
-    <m/>
-    <s v="colore dati mercato"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
+    <s v="Modulo Sconfino Forborne"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.12"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7025,12 +8818,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="17"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
+    <s v="Modulo Insoluti"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.13"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7039,12 +8832,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="18"/>
-    <s v="Antexport"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
+    <s v="Modulo Qualitativo"/>
+    <m/>
+    <s v="colore Qualitativo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7053,12 +8846,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="19"/>
-    <s v="Finimport"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
+    <s v="Color XRA"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.1"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7067,12 +8860,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="20"/>
-    <s v="AnticipoFattureItalia"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
+    <s v="Color CR Alzo Zero + AFI"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7081,12 +8874,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="21"/>
-    <s v="Covenant"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
+    <s v="Color Bilancio Familiare"/>
+    <m/>
+    <s v="colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7095,12 +8888,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="22"/>
-    <s v="Insoluti"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
+    <s v="Score XRA"/>
+    <m/>
+    <s v="score di modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.4"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7109,12 +8902,12 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W01"/>
+    <s v="EWS App-RETAIL"/>
     <n v="23"/>
-    <s v="fattureScaduteFactoring"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
+    <s v="Score CR Alzo Zero + AFI"/>
+    <m/>
+    <s v="score di modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.5"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -7123,13 +8916,13 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W02"/>
+    <s v="EWS App-RETAIL"/>
     <n v="24"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="Score Bilancio Familiare"/>
+    <m/>
+    <s v="score di modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6"/>
+    <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -7137,13 +8930,13 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W02"/>
+    <s v="EWS App-RETAIL"/>
     <n v="25"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="Color CRAFI_XRA_BIFA"/>
+    <m/>
+    <s v="Colore(Integrazione Moduli CRAFI_XRA_BILFAM)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7"/>
+    <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -7151,741 +8944,13 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W02"/>
+    <s v="EWS App-RETAIL"/>
     <n v="26"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale e segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="27"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="28"/>
-    <s v="Matrice di Rischio"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="29"/>
-    <s v="Color CR Alzo Zero"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="30"/>
-    <s v="Color CR Sistema "/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="31"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="32"/>
-    <s v="Matrix_Colore_CR"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CR0 e CRSYS)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="33"/>
-    <s v="Score CR Alzo Zero"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Score_CRAFI_XRA_BIFA"/>
+    <m/>
+    <s v="Score(Integrazione Moduli CRAFI_XRA_BILFAM)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8"/>
     <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="34"/>
-    <s v="Score CR Sistema"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="35"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="36"/>
-    <s v="Matrix_Score_CR_XRA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CR_XRA)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="37"/>
-    <s v="Modulo Dati di Mercato"/>
-    <m/>
-    <s v="colore dati mercato"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="38"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="39"/>
-    <s v="Covenant"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="40"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="41"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="42"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale e segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="43"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="44"/>
-    <s v="Matrice di Rischio"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="45"/>
-    <s v="Color CR Alzo Zero"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="46"/>
-    <s v="Color CR Sistema "/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="47"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="48"/>
-    <s v="Matrix_Colore_CR"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CR0 e CRSYS)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="49"/>
-    <s v="Score CR Alzo Zero"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="50"/>
-    <s v="Score CR Sistema"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="51"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="52"/>
-    <s v="Matrix_Score_CR_XRA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CR_XRA)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="53"/>
-    <s v="Modulo Dati di Mercato"/>
-    <m/>
-    <s v="colore dati mercato"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="54"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="55"/>
-    <s v="Covenant"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="56"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="57"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="58"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale e segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="59"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="60"/>
-    <s v="Matrice di Rischio"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="61"/>
-    <s v="Color CR Alzo Zero"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="62"/>
-    <s v="Color CR Sistema "/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="63"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="64"/>
-    <s v="Matrix_Colore_CR"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CR0 e CRSYS)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="65"/>
-    <s v="Score CR Alzo Zero"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="66"/>
-    <s v="Score CR Sistema"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="67"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="68"/>
-    <s v="Matrix_Score_CR_XRA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CR_XRA)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="69"/>
-    <s v="Modulo Carta Commerciale"/>
-    <m/>
-    <s v="colore carta commerciale"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="70"/>
-    <s v="Modulo Preammortamenti"/>
-    <m/>
-    <s v="colore preammortamenti"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="71"/>
-    <s v="Modulo Dati di Mercato"/>
-    <m/>
-    <s v="colore dati mercato"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="72"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="73"/>
-    <s v="Antexport"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="74"/>
-    <s v="Finimport"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="75"/>
-    <s v="AnticipoFattureItalia"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="76"/>
-    <s v="Covenant"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="77"/>
-    <s v="Insoluti"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="78"/>
-    <s v="fattureScaduteFactoring"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -7937,1066 +9002,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="1"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="2"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="3"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale e segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="4"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="5"/>
-    <s v="Matrice di Rischio"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="6"/>
-    <s v="Color CR Alzo Zero"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="7"/>
-    <s v="Color CR Sistema "/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="8"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="9"/>
-    <s v="Matrix_Colore_CR"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CR0 e CRSYS)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="10"/>
-    <s v="Score CR Alzo Zero"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="11"/>
-    <s v="Score CR Sistema"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="12"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="13"/>
-    <s v="Matrix_Score_CR_XRA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CR_XRA)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="14"/>
-    <s v="Modulo Carta Commerciale"/>
-    <m/>
-    <s v="colore carta commerciale"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="15"/>
-    <s v="Modulo Preammortamenti"/>
-    <m/>
-    <s v="colore preammortamenti"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="16"/>
-    <s v="Modulo Dati di Mercato"/>
-    <m/>
-    <s v="colore dati mercato"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="17"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="18"/>
-    <s v="Antexport"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="19"/>
-    <s v="Finimport"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="20"/>
-    <s v="AnticipoFattureItalia"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="21"/>
-    <s v="Covenant"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="22"/>
-    <s v="Insoluti"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W01"/>
-    <n v="23"/>
-    <s v="fattureScaduteFactoring"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="24"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="25"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="26"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale e segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="27"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="28"/>
-    <s v="Matrice di Rischio"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="29"/>
-    <s v="Color CR Alzo Zero"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="30"/>
-    <s v="Color CR Sistema "/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="31"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="32"/>
-    <s v="Matrix_Colore_CR"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CR0 e CRSYS)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="33"/>
-    <s v="Score CR Alzo Zero"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="34"/>
-    <s v="Score CR Sistema"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="35"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="36"/>
-    <s v="Matrix_Score_CR_XRA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CR_XRA)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="37"/>
-    <s v="Modulo Dati di Mercato"/>
-    <m/>
-    <s v="colore dati mercato"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="38"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W02"/>
-    <n v="39"/>
-    <s v="Covenant"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="40"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="41"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="42"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale e segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="43"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="44"/>
-    <s v="Matrice di Rischio"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="45"/>
-    <s v="Color CR Alzo Zero"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="46"/>
-    <s v="Color CR Sistema "/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="47"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="48"/>
-    <s v="Matrix_Colore_CR"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CR0 e CRSYS)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="49"/>
-    <s v="Score CR Alzo Zero"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="50"/>
-    <s v="Score CR Sistema"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="51"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="52"/>
-    <s v="Matrix_Score_CR_XRA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CR_XRA)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="53"/>
-    <s v="Modulo Dati di Mercato"/>
-    <m/>
-    <s v="colore dati mercato"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="54"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W03"/>
-    <n v="55"/>
-    <s v="Covenant"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="56"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="57"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="58"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale e segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="59"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="60"/>
-    <s v="Matrice di Rischio"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="61"/>
-    <s v="Color CR Alzo Zero"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="62"/>
-    <s v="Color CR Sistema "/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="63"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="64"/>
-    <s v="Matrix_Colore_CR"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CR0 e CRSYS)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="65"/>
-    <s v="Score CR Alzo Zero"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="66"/>
-    <s v="Score CR Sistema"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="67"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="68"/>
-    <s v="Matrix_Score_CR_XRA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CR_XRA)"/>
-    <s v="Per ogni sndg non avente la condizione fast_track=1 sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termini di score"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="69"/>
-    <s v="Modulo Carta Commerciale"/>
-    <m/>
-    <s v="colore carta commerciale"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="70"/>
-    <s v="Modulo Preammortamenti"/>
-    <m/>
-    <s v="colore preammortamenti"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="71"/>
-    <s v="Modulo Dati di Mercato"/>
-    <m/>
-    <s v="colore dati mercato"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="72"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="73"/>
-    <s v="Antexport"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="74"/>
-    <s v="Finimport"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="75"/>
-    <s v="AnticipoFattureItalia"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="76"/>
-    <s v="Covenant"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="77"/>
-    <s v="Insoluti"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W04"/>
-    <n v="78"/>
-    <s v="fattureScaduteFactoring"/>
-    <m/>
-    <s v="colore sotto modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (BR vs MODULE)"/>
-    <s v="Non ci siano differenze in termini di colore "/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -9147,7 +9154,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
   <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -9362,7 +9369,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -10209,80 +10216,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="105"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -10408,161 +10415,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="89" t="s">
+      <c r="C37" s="91"/>
+      <c r="D37" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="89" t="s">
+      <c r="C39" s="91"/>
+      <c r="D39" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="89" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="89" t="s">
+      <c r="C41" s="91"/>
+      <c r="D41" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="99" t="s">
+      <c r="C42" s="91"/>
+      <c r="D42" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="89" t="s">
+      <c r="E42" s="95"/>
+      <c r="F42" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89" t="s">
+      <c r="G42" s="92"/>
+      <c r="H42" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="89" t="s">
+      <c r="C43" s="91"/>
+      <c r="D43" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="103">
+      <c r="C44" s="91"/>
+      <c r="D44" s="93">
         <v>42899</v>
       </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="89" t="s">
+      <c r="E44" s="94"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="103">
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="93">
         <v>42899</v>
       </c>
-      <c r="K44" s="100"/>
+      <c r="K44" s="95"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -10613,35 +10620,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="102"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -10692,6 +10699,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -10700,25 +10726,6 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10728,13 +10735,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Foglio2"/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10759,38 +10766,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="106" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="107" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
@@ -10838,7 +10845,7 @@
     </row>
     <row r="4" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B4" s="80">
         <v>1</v>
@@ -10874,7 +10881,7 @@
     </row>
     <row r="5" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B5" s="80">
         <v>2</v>
@@ -10884,10 +10891,10 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="69" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="G5" s="82" t="s">
         <v>58</v>
@@ -10904,23 +10911,23 @@
     </row>
     <row r="6" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B6" s="80">
         <v>3</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="69" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F6" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>59</v>
@@ -10934,23 +10941,23 @@
     </row>
     <row r="7" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B7" s="80">
         <v>4</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="69" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>59</v>
@@ -10962,25 +10969,25 @@
       <c r="K7" s="63"/>
       <c r="L7" s="64"/>
     </row>
-    <row r="8" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B8" s="80">
         <v>5</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="81"/>
+        <v>129</v>
+      </c>
+      <c r="D8" s="72"/>
       <c r="E8" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>85</v>
+        <v>130</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="131" t="s">
+        <v>125</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>59</v>
@@ -10992,25 +10999,25 @@
       <c r="K8" s="63"/>
       <c r="L8" s="64"/>
     </row>
-    <row r="9" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B9" s="80">
         <v>6</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="72"/>
+        <v>83</v>
+      </c>
+      <c r="D9" s="81"/>
       <c r="E9" s="69" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>59</v>
@@ -11024,23 +11031,23 @@
     </row>
     <row r="10" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B10" s="80">
         <v>7</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="69" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>59</v>
@@ -11054,23 +11061,23 @@
     </row>
     <row r="11" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B11" s="80">
         <v>8</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="69" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H11" s="63" t="s">
         <v>59</v>
@@ -11084,23 +11091,23 @@
     </row>
     <row r="12" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B12" s="80">
         <v>9</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="69" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H12" s="63" t="s">
         <v>59</v>
@@ -11114,23 +11121,23 @@
     </row>
     <row r="13" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B13" s="80">
         <v>10</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="69" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H13" s="63" t="s">
         <v>59</v>
@@ -11144,23 +11151,23 @@
     </row>
     <row r="14" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B14" s="80">
         <v>11</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="69" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>59</v>
@@ -11174,23 +11181,23 @@
     </row>
     <row r="15" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B15" s="80">
         <v>12</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="69" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>59</v>
@@ -11204,23 +11211,23 @@
     </row>
     <row r="16" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B16" s="80">
         <v>13</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="69" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H16" s="63" t="s">
         <v>59</v>
@@ -11232,25 +11239,25 @@
       <c r="K16" s="63"/>
       <c r="L16" s="64"/>
     </row>
-    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B17" s="80">
         <v>14</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="81"/>
+        <v>102</v>
+      </c>
+      <c r="D17" s="72"/>
       <c r="E17" s="69" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>59</v>
@@ -11264,23 +11271,23 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B18" s="80">
         <v>15</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="69" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H18" s="63" t="s">
         <v>59</v>
@@ -11294,23 +11301,23 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B19" s="80">
         <v>16</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="69" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H19" s="63" t="s">
         <v>59</v>
@@ -11324,23 +11331,23 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B20" s="80">
         <v>17</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="69" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H20" s="63" t="s">
         <v>59</v>
@@ -11352,25 +11359,25 @@
       <c r="K20" s="63"/>
       <c r="L20" s="64"/>
     </row>
-    <row r="21" spans="1:12" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B21" s="80">
         <v>18</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="72"/>
+        <v>106</v>
+      </c>
+      <c r="D21" s="81"/>
       <c r="E21" s="69" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F21" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>59</v>
@@ -11382,25 +11389,25 @@
       <c r="K21" s="63"/>
       <c r="L21" s="64"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B22" s="80">
         <v>19</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="81"/>
+        <v>113</v>
+      </c>
+      <c r="D22" s="72"/>
       <c r="E22" s="69" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H22" s="63" t="s">
         <v>59</v>
@@ -11414,23 +11421,23 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B23" s="80">
         <v>20</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="69" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H23" s="63" t="s">
         <v>59</v>
@@ -11444,23 +11451,23 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B24" s="80">
         <v>21</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="69" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H24" s="63" t="s">
         <v>59</v>
@@ -11474,23 +11481,23 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B25" s="80">
         <v>22</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="69" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H25" s="63" t="s">
         <v>59</v>
@@ -11502,25 +11509,25 @@
       <c r="K25" s="63"/>
       <c r="L25" s="64"/>
     </row>
-    <row r="26" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B26" s="80">
         <v>23</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="69" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H26" s="63" t="s">
         <v>59</v>
@@ -11534,23 +11541,23 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B27" s="80">
         <v>24</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="69" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="63" t="s">
         <v>59</v>
@@ -11562,25 +11569,25 @@
       <c r="K27" s="63"/>
       <c r="L27" s="64"/>
     </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B28" s="80">
         <v>25</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="69" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="63" t="s">
         <v>59</v>
@@ -11592,41 +11599,156 @@
       <c r="K28" s="63"/>
       <c r="L28" s="64"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="83">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="80">
         <v>26</v>
       </c>
-      <c r="C29" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="83" t="s">
+      <c r="C29" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="86" t="s">
+      <c r="I29" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="87"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="87"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="67"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I31" s="67"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="80">
+        <v>27</v>
+      </c>
+      <c r="C30" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="126"/>
+      <c r="E30" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="128"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="128"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="80">
+        <v>28</v>
+      </c>
+      <c r="C31" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="126"/>
+      <c r="E31" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="128"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="128"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="130">
+        <v>29</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="88"/>
+      <c r="E32" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="87"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="87"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="67"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="80"/>
+      <c r="C34" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="72"/>
+      <c r="E34" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="64"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11634,18 +11756,27 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:L2"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D25 D28:D29 D4:D7">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D27 D32">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I32:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35:I1048576">
       <formula1>$P$3:$P$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I33">
       <formula1>$P$3:$P$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K33 K35:K1048576">
       <formula1>$Q$3:$Q$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K34">
+      <formula1>$Q$3:$Q$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I34">
+      <formula1>$P$3:$P$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11685,40 +11816,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
-      <c r="G1" s="113" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="116"/>
+      <c r="G1" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="116"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="118"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
@@ -11760,16 +11891,16 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="18"/>
       <c r="G5" s="20"/>
       <c r="H5" s="47">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I5" s="48">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -11787,9 +11918,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="18"/>
       <c r="G6" s="20"/>
       <c r="H6" s="42"/>
@@ -11835,17 +11966,17 @@
       </c>
       <c r="E8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="107" t="s">
+      <c r="L8" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="108"/>
-      <c r="N8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="110"/>
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11854,7 +11985,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="38">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D9" s="29">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -11862,28 +11993,28 @@
       </c>
       <c r="E9" s="18"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="122"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="52" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C10" s="39">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18"/>
       <c r="G10" s="33"/>
       <c r="H10" s="58" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I10" s="59" t="s">
         <v>48</v>
@@ -11893,7 +12024,7 @@
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="57" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M10" s="60" t="s">
         <v>48</v>
@@ -11972,7 +12103,7 @@
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="56" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="26"/>
@@ -11986,7 +12117,7 @@
       <c r="E14" s="18"/>
       <c r="G14" s="20"/>
       <c r="H14" s="59" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="26"/>
@@ -12258,7 +12389,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12273,12 +12404,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="123"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="76" t="s">
         <v>67</v>
@@ -12295,10 +12426,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F3" s="77"/>
     </row>
@@ -12309,14 +12440,14 @@
       <c r="C4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="122" t="s">
-        <v>76</v>
+      <c r="D4" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="123" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -12326,10 +12457,10 @@
       <c r="C5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -12340,11 +12471,11 @@
         <v>60</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="77" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -12352,10 +12483,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="77"/>
@@ -12365,19 +12496,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="79" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>82</v>
       </c>
       <c r="F8" s="77"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -12396,29 +12527,29 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="C2:C14"/>
+  <dimension ref="C2:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="73" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" style="73" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" style="73" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="73"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="3:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="74" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="3:3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
@@ -12432,6 +12563,16 @@
     <row r="12" spans="3:3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12440,9 +12581,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12560,25 +12704,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12600,9 +12734,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/Document/test/RETAIL/Unit Test_Rapporto avanzamento non regression test App2.0_Retail.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/Unit Test_Rapporto avanzamento non regression test App2.0_Retail.xlsx
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="133">
   <si>
     <t>Applicazione</t>
   </si>
@@ -624,9 +624,6 @@
   </si>
   <si>
     <t>Business Rules</t>
-  </si>
-  <si>
-    <t>Non ci siano differenze in termine di flag (accensione segnale)</t>
   </si>
   <si>
     <t>check BR</t>
@@ -1496,18 +1493,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1611,29 +1624,14 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1643,11 +1641,852 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="203">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -8095,7 +8934,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42929.397549768517" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42936.544403587963" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -8104,7 +8943,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -8149,7 +8988,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42929.39755011574" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42936.544403703701" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -8158,7 +8997,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -8210,7 +9049,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="1"/>
@@ -8242,7 +9081,7 @@
     <n v="3"/>
     <s v="Matrice di Rischio"/>
     <m/>
-    <s v="colore matrice di rischio"/>
+    <s v="Colore matrice di rischio"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
@@ -8253,9 +9092,9 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="4"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
+    <s v="Semaforo HighPriority"/>
+    <m/>
+    <s v="Colore semaforo HighPriority"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
@@ -8266,11 +9105,11 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="5"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 "/>
-    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="Covenant "/>
+    <m/>
+    <s v="flag Covenant"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra le BR del modulo prima e dopo l'introduzione della nuova app 2.0 "/>
+    <s v="Non ci siano differenze in termini di numero"/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
     <m/>
@@ -8279,10 +9118,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="6"/>
-    <s v="Modulo Segnali Gravi di Rischio"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2"/>
+    <s v="Modulo NOPG"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8292,10 +9131,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="7"/>
-    <s v="Sottomodulo SGR - garanzie attivate con esito negativo"/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Modulo Segnali Gravi di Rischio"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8305,10 +9144,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="8"/>
-    <s v="Sottomodulo SGR - Socio società a sofferenza presso altri  "/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Sottomodulo SGR - garanzie attivate con esito negativo"/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8318,10 +9157,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="9"/>
-    <s v="Sottomodulo SGR - Socio società a sofferenza presso ISP  "/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Sottomodulo SGR - Socio società a sofferenza presso altri  "/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8331,10 +9170,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="10"/>
-    <s v="Sottomodulo SGR - Garanzie a favore soggetti in sofferenza   "/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6"/>
+    <s v="Sottomodulo SGR - Socio società a sofferenza presso ISP  "/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8344,10 +9183,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="11"/>
-    <s v="Modulo Rate Impagate"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7"/>
+    <s v="Sottomodulo SGR - Garanzie a favore soggetti in sofferenza   "/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8357,10 +9196,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="12"/>
-    <s v="Sottomodulo Rate Impagate su CC"/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8"/>
+    <s v="Modulo Rate Impagate"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8370,10 +9209,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="13"/>
-    <s v="Sottomodulo Rate Impagate RID/MAV"/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.9"/>
+    <s v="Sottomodulo Rate Impagate su CC"/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8383,10 +9222,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="14"/>
-    <s v="Modulo Cessioni del Quinto"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.10"/>
+    <s v="Sottomodulo Rate Impagate RID/MAV"/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8396,10 +9235,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="15"/>
-    <s v="Modulo Sconfino CC"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.11"/>
+    <s v="Modulo Cessioni del Quinto"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8409,10 +9248,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="16"/>
-    <s v="Modulo Sconfino Forborne"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.12"/>
+    <s v="Modulo Sconfino CC"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8422,10 +9261,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="17"/>
-    <s v="Modulo Insoluti"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.13"/>
+    <s v="Modulo Sconfino Forborne"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8435,9 +9274,9 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="18"/>
-    <s v="Modulo Qualitativo"/>
-    <m/>
-    <s v="colore Qualitativo"/>
+    <s v="Modulo Insoluti"/>
+    <m/>
+    <s v="Colore modulo"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
@@ -8448,10 +9287,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="19"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.1"/>
+    <s v="Semaforo Qualitativo"/>
+    <m/>
+    <s v="Colore semaforo Qualitativo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8461,10 +9300,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="20"/>
-    <s v="Color CR Alzo Zero + AFI"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2"/>
+    <s v="Color XRA"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8474,10 +9313,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="21"/>
-    <s v="Color Bilancio Familiare"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Color CR Alzo Zero + AFI"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8487,10 +9326,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="22"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.4"/>
+    <s v="Color Bilancio Familiare"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8500,10 +9339,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="23"/>
-    <s v="Score CR Alzo Zero + AFI"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.5"/>
+    <s v="Color CRAFI_XRA_BIFA"/>
+    <m/>
+    <s v="Colore semaforo Statistico"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8513,11 +9352,11 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="24"/>
-    <s v="Score Bilancio Familiare"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6"/>
-    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="Score XRA"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
     <m/>
@@ -8526,11 +9365,11 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="25"/>
-    <s v="Color CRAFI_XRA_BIFA"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CRAFI_XRA_BILFAM)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7"/>
-    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="Score CR Alzo Zero + AFI"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
     <m/>
@@ -8539,10 +9378,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="26"/>
-    <s v="Score_CRAFI_XRA_BIFA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CRAFI_XRA_BILFAM)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8"/>
+    <s v="Score Bilancio Familiare"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
     <s v="Non ci siano differenze in termini di score"/>
     <s v="confronto sulla tabella finale"/>
     <x v="0"/>
@@ -8550,19 +9389,45 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="EWS App-RETAIL"/>
+    <n v="27"/>
+    <s v="Score BILFAM_NOSTIP"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
   <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="28"/>
+    <s v="Score BILFAM_SISTIP"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="29"/>
+    <s v="Score_CRAFI_XRA_BIFA"/>
+    <m/>
+    <s v="Score Statistico"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -8572,6 +9437,19 @@
     <m/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <m/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="check BR"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -8592,7 +9470,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="1"/>
@@ -8626,7 +9504,7 @@
     <n v="3"/>
     <s v="Matrice di Rischio"/>
     <m/>
-    <s v="colore matrice di rischio"/>
+    <s v="Colore matrice di rischio"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
@@ -8638,9 +9516,9 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="4"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
+    <s v="Semaforo HighPriority"/>
+    <m/>
+    <s v="Colore semaforo HighPriority"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
@@ -8652,11 +9530,11 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="5"/>
-    <s v="Modulo NOPG"/>
-    <m/>
-    <s v="colore NOPG"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 "/>
-    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="Covenant "/>
+    <m/>
+    <s v="flag Covenant"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra le BR del modulo prima e dopo l'introduzione della nuova app 2.0 "/>
+    <s v="Non ci siano differenze in termini di numero"/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -8666,10 +9544,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="6"/>
-    <s v="Modulo Segnali Gravi di Rischio"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2"/>
+    <s v="Modulo NOPG"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8680,10 +9558,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="7"/>
-    <s v="Sottomodulo SGR - garanzie attivate con esito negativo"/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Modulo Segnali Gravi di Rischio"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8694,10 +9572,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="8"/>
-    <s v="Sottomodulo SGR - Socio società a sofferenza presso altri  "/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Sottomodulo SGR - garanzie attivate con esito negativo"/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8708,10 +9586,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="9"/>
-    <s v="Sottomodulo SGR - Socio società a sofferenza presso ISP  "/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Sottomodulo SGR - Socio società a sofferenza presso altri  "/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8722,10 +9600,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="10"/>
-    <s v="Sottomodulo SGR - Garanzie a favore soggetti in sofferenza   "/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6"/>
+    <s v="Sottomodulo SGR - Socio società a sofferenza presso ISP  "/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8736,10 +9614,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="11"/>
-    <s v="Modulo Rate Impagate"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7"/>
+    <s v="Sottomodulo SGR - Garanzie a favore soggetti in sofferenza   "/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8750,10 +9628,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="12"/>
-    <s v="Sottomodulo Rate Impagate su CC"/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8"/>
+    <s v="Modulo Rate Impagate"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8764,10 +9642,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="13"/>
-    <s v="Sottomodulo Rate Impagate RID/MAV"/>
-    <m/>
-    <s v="colore sottomodulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.9"/>
+    <s v="Sottomodulo Rate Impagate su CC"/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8778,10 +9656,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="14"/>
-    <s v="Modulo Cessioni del Quinto"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.10"/>
+    <s v="Sottomodulo Rate Impagate RID/MAV"/>
+    <m/>
+    <s v="Colore sottomodulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8792,10 +9670,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="15"/>
-    <s v="Modulo Sconfino CC"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.11"/>
+    <s v="Modulo Cessioni del Quinto"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8806,10 +9684,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="16"/>
-    <s v="Modulo Sconfino Forborne"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.12"/>
+    <s v="Modulo Sconfino CC"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8820,10 +9698,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="17"/>
-    <s v="Modulo Insoluti"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.13"/>
+    <s v="Modulo Sconfino Forborne"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8834,9 +9712,9 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="18"/>
-    <s v="Modulo Qualitativo"/>
-    <m/>
-    <s v="colore Qualitativo"/>
+    <s v="Modulo Insoluti"/>
+    <m/>
+    <s v="Colore modulo"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
@@ -8848,10 +9726,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="19"/>
-    <s v="Color XRA"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.1"/>
+    <s v="Semaforo Qualitativo"/>
+    <m/>
+    <s v="Colore semaforo Qualitativo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8862,10 +9740,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="20"/>
-    <s v="Color CR Alzo Zero + AFI"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.2"/>
+    <s v="Color XRA"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8876,10 +9754,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="21"/>
-    <s v="Color Bilancio Familiare"/>
-    <m/>
-    <s v="colore modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.3"/>
+    <s v="Color CR Alzo Zero + AFI"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8890,10 +9768,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="22"/>
-    <s v="Score XRA"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.4"/>
+    <s v="Color Bilancio Familiare"/>
+    <m/>
+    <s v="Colore modulo"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8904,10 +9782,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="23"/>
-    <s v="Score CR Alzo Zero + AFI"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.5"/>
+    <s v="Color CRAFI_XRA_BIFA"/>
+    <m/>
+    <s v="Colore semaforo Statistico"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8918,11 +9796,11 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="24"/>
-    <s v="Score Bilancio Familiare"/>
-    <m/>
-    <s v="score di modulo"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.6"/>
-    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="Score XRA"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -8932,11 +9810,11 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="25"/>
-    <s v="Color CRAFI_XRA_BIFA"/>
-    <m/>
-    <s v="Colore(Integrazione Moduli CRAFI_XRA_BILFAM)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.7"/>
-    <s v="Non ci siano differenze in termini di colore "/>
+    <s v="Score CR Alzo Zero + AFI"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
     <m/>
@@ -8946,10 +9824,10 @@
   <r>
     <s v="EWS App-RETAIL"/>
     <n v="26"/>
-    <s v="Score_CRAFI_XRA_BIFA"/>
-    <m/>
-    <s v="Score(Integrazione Moduli CRAFI_XRA_BILFAM)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.8"/>
+    <s v="Score Bilancio Familiare"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
     <s v="Non ci siano differenze in termini di score"/>
     <s v="confronto sulla tabella finale"/>
     <s v="Ok"/>
@@ -8958,29 +9836,71 @@
     <x v="0"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="EWS App-RETAIL"/>
+    <n v="27"/>
+    <s v="Score BILFAM_NOSTIP"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="EWS App-RETAIL"/>
+    <n v="28"/>
+    <s v="Score BILFAM_SISTIP"/>
+    <m/>
+    <s v="Score di modulo"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <n v="29"/>
+    <s v="Score_CRAFI_XRA_BIFA"/>
+    <m/>
+    <s v="Score Statistico"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per final score"/>
+    <s v="Non ci siano differenze in termini di score"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-RETAIL"/>
+    <m/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="check BR"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -9048,96 +9968,96 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="28">
+    <format dxfId="129">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="128">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="127">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="126">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="125">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="124">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="119">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="118">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="115">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="112">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="109">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="104">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9199,160 +10119,160 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="44">
-    <format dxfId="72">
+    <format dxfId="173">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="172">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="171">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="170">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="169">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="168">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="165">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="164">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="162">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="157">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="156">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="155">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="151">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="150">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="149">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="148">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="143">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="142">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="141">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="136">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="135">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="134">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9417,107 +10337,107 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="101">
+    <format dxfId="202">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="201">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="200">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="199">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="198">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="197">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="196">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="194">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="193">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="192">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="191">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="190">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="188">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="187">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="186">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="185">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="180">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="179">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="178">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="176">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="175">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="174">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10216,80 +11136,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="102"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="107"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="105"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -10415,161 +11335,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92" t="s">
+      <c r="C37" s="96"/>
+      <c r="D37" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92" t="s">
+      <c r="C38" s="96"/>
+      <c r="D38" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92" t="s">
+      <c r="C39" s="96"/>
+      <c r="D39" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92" t="s">
+      <c r="C41" s="96"/>
+      <c r="D41" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="96" t="s">
+      <c r="C42" s="96"/>
+      <c r="D42" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="95"/>
-      <c r="F42" s="92" t="s">
+      <c r="E42" s="100"/>
+      <c r="F42" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92" t="s">
+      <c r="G42" s="97"/>
+      <c r="H42" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="92" t="s">
+      <c r="C43" s="96"/>
+      <c r="D43" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="93">
+      <c r="C44" s="96"/>
+      <c r="D44" s="98">
         <v>42899</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="92" t="s">
+      <c r="E44" s="99"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="93">
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="98">
         <v>42899</v>
       </c>
-      <c r="K44" s="95"/>
+      <c r="K44" s="100"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -10620,35 +11540,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -10741,7 +11661,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10766,38 +11686,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="107" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
@@ -10977,16 +11897,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="131" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="131" t="s">
+      <c r="G8" s="93" t="s">
         <v>125</v>
       </c>
       <c r="H8" s="63" t="s">
@@ -11636,11 +12556,11 @@
       <c r="B30" s="80">
         <v>27</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="129" t="s">
+      <c r="D30" s="88"/>
+      <c r="E30" s="91" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="82" t="s">
@@ -11652,12 +12572,12 @@
       <c r="H30" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="127" t="s">
+      <c r="I30" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="128"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="128"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="90"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
@@ -11666,11 +12586,11 @@
       <c r="B31" s="80">
         <v>28</v>
       </c>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="126"/>
-      <c r="E31" s="129" t="s">
+      <c r="D31" s="88"/>
+      <c r="E31" s="91" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="82" t="s">
@@ -11682,101 +12602,96 @@
       <c r="H31" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="127" t="s">
+      <c r="I31" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="128"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="128"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="90"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="83" t="s">
+    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="130">
+      <c r="B32" s="63">
         <v>29</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="84" t="s">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="85" t="s">
+      <c r="G32" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="86" t="s">
+      <c r="I32" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="87"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="87"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
     </row>
-    <row r="33" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="67"/>
+    <row r="33" spans="1:12" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="92">
+        <v>30</v>
+      </c>
+      <c r="C33" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="86"/>
+      <c r="E33" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="132"/>
+      <c r="H33" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="85"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="85"/>
     </row>
-    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="64"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
-    </row>
+    <row r="34" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:L2"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D27 D32">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D27 D32:D33">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35:I1048576">
       <formula1>$P$3:$P$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I32">
       <formula1>$P$3:$P$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K33 K35:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K35:K1048576 K4:K32">
       <formula1>$Q$3:$Q$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K33">
       <formula1>$Q$3:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33">
       <formula1>$P$3:$P$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34">
-      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11816,40 +12731,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="116"/>
-      <c r="G1" s="114" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="G1" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="116"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="121"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="119"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
@@ -11891,16 +12806,16 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="18"/>
       <c r="G5" s="20"/>
       <c r="H5" s="47">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" s="48">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -11918,9 +12833,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="18"/>
       <c r="G6" s="20"/>
       <c r="H6" s="42"/>
@@ -11966,17 +12881,17 @@
       </c>
       <c r="E8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="110"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="115"/>
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11985,7 +12900,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="38">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="29">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -11993,13 +12908,13 @@
       </c>
       <c r="E9" s="18"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="122"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="127"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12008,7 +12923,7 @@
         <v>87</v>
       </c>
       <c r="C10" s="39">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18"/>
@@ -12404,10 +13319,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="124"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="75" t="s">
         <v>70</v>
       </c>
@@ -12440,14 +13355,14 @@
       <c r="C4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="128" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -12457,8 +13372,8 @@
       <c r="C5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="77" t="s">
         <v>75</v>
       </c>
@@ -12475,7 +13390,7 @@
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">

--- a/earlywarning-pom/Document/test/RETAIL/Unit Test_Rapporto avanzamento non regression test App2.0_Retail.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/Unit Test_Rapporto avanzamento non regression test App2.0_Retail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\ISP\git\client-intesa\client-intesa\earlywarning-pom\Document\test\RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
-    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="17" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="133">
   <si>
     <t>Applicazione</t>
   </si>
@@ -470,9 +470,6 @@
 Una tantum per tutte le banche</t>
   </si>
   <si>
-    <t>CUSTOMER_TABLE_ESTERE_ddmmyyyy</t>
-  </si>
-  <si>
     <t>App - Certificatore</t>
   </si>
   <si>
@@ -504,12 +501,6 @@
   </si>
   <si>
     <t>Color XRA</t>
-  </si>
-  <si>
-    <t>Totale complessivo</t>
-  </si>
-  <si>
-    <t>Etichette di riga</t>
   </si>
   <si>
     <t>numerosità controparti per Final Color</t>
@@ -638,10 +629,19 @@
     <t xml:space="preserve">Per ogni sndg sarà verificata puntualmente l'uguaglianza tra le BR del modulo prima e dopo l'introduzione della nuova app 2.0 </t>
   </si>
   <si>
-    <t>OUTPUT_WEB_RETAIL_20170710</t>
+    <t>OUTPUT_RETAIL_TEST</t>
   </si>
   <si>
-    <t>OUTPUT_RETAIL_TEST</t>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>OUTPUT_WEB_RETAIL_20170719</t>
+  </si>
+  <si>
+    <t>RE_CUSTOMER_TABLE_20170719</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,14 +789,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,12 +843,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1285,7 +1273,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1512,15 +1500,9 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1624,195 +1606,13 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="203">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1978,6 +1778,172 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2510,6 +2476,172 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3164,169 +3296,8 @@
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <color theme="4" tint="0.79998168889431442"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -7545,7 +7516,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> OUTPUT_WEB_RETAIL_20170710  p </a:t>
+            <a:t> OUTPUT_WEB_RETAIL_20170719  p </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
@@ -8842,7 +8813,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> OUTPUT_WEB_RETAIL_20170710  p </a:t>
+            <a:t> OUTPUT_WEB_RETAIL_20170719  p </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" b="1">
@@ -8934,7 +8905,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42936.544403587963" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42937.537377777779" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -8943,7 +8914,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -8972,7 +8943,7 @@
         <s v="In esecuzione" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
+    <cacheField name="Data consegna" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Verifica DSI" numFmtId="0">
@@ -8988,7 +8959,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42936.544403703701" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42937.537379398149" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -8997,7 +8968,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -9020,7 +8991,7 @@
     <cacheField name="Stato test" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
+    <cacheField name="Data consegna" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Verifica DSI" numFmtId="0">
@@ -9428,28 +9399,28 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="EWS App-RETAIL"/>
+    <n v="30"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="check BR"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termini di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <s v="EWS App-RETAIL"/>
-    <m/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="check BR"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -9878,29 +9849,29 @@
     <x v="0"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="EWS App-RETAIL"/>
+    <n v="30"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="check BR"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termini di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-RETAIL"/>
-    <m/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="check BR"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -9923,373 +9894,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
-  </dataFields>
-  <formats count="28">
-    <format dxfId="129">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="128">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="127">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="126">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="125">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="124">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="123">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="121">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="120">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="119">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="117">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="116">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="115">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="112">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="111">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="110">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="107">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="106">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="105">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="104">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="103">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
-  <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="6">
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="44">
-    <format dxfId="173">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="172">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="171">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="170">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="169">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="168">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="167">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="166">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="165">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="164">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="163">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="162">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="161">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="160">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="159">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="158">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="157">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="156">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="155">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="154">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="153">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="152">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="151">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="150">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="149">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="148">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="147">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="146">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="145">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="144">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="143">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="142">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="141">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="140">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="139">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="138">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="137">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="136">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="135">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="134">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="133">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="132">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="131">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -10337,107 +9942,473 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="202">
+    <format dxfId="129">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="128">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="127">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="126">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="196">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="121">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="120">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="119">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="114">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="113">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="112">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="107">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="106">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="105">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
+    <format dxfId="101">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
+  </dataFields>
+  <formats count="28">
+    <format dxfId="157">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="156">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="155">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="154">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="153">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="152">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="151">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="150">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="149">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="148">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="147">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="146">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="145">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="144">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="143">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="142">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="141">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="140">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="139">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="138">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="137">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="136">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="135">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="134">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="133">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="132">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="131">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="130">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+  <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="6">
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="44">
+    <format dxfId="201">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="200">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="199">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="198">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="197">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="196">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="195">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="194">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="193">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="192">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="191">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="190">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="189">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="188">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="187">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="186">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="185">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="184">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="183">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="182">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="181">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="180">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="179">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="178">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="177">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="176">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="175">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
     <format dxfId="174">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="173">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="172">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="171">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="170">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="169">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="168">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="167">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="166">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="165">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="164">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="163">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="162">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="161">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="160">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="159">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10454,7 +10425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10777,8 +10748,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:K48"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11136,80 +11107,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="107"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="110"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -11335,161 +11306,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97" t="s">
+      <c r="C37" s="94"/>
+      <c r="D37" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97" t="s">
+      <c r="C38" s="94"/>
+      <c r="D38" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="97" t="s">
+      <c r="C39" s="94"/>
+      <c r="D39" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="97" t="s">
+      <c r="C40" s="94"/>
+      <c r="D40" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97" t="s">
+      <c r="C41" s="94"/>
+      <c r="D41" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="101" t="s">
+      <c r="C42" s="94"/>
+      <c r="D42" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="97" t="s">
+      <c r="E42" s="98"/>
+      <c r="F42" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97" t="s">
+      <c r="G42" s="95"/>
+      <c r="H42" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="96" t="s">
+      <c r="B43" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97" t="s">
+      <c r="C43" s="94"/>
+      <c r="D43" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="98">
-        <v>42899</v>
-      </c>
-      <c r="E44" s="99"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="97" t="s">
+      <c r="C44" s="94"/>
+      <c r="D44" s="96">
+        <v>42936</v>
+      </c>
+      <c r="E44" s="97"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="98">
-        <v>42899</v>
-      </c>
-      <c r="K44" s="100"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="96">
+        <v>42936</v>
+      </c>
+      <c r="K44" s="98"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -11540,35 +11511,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="94" t="s">
+      <c r="B48" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -11658,10 +11629,10 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -11686,38 +11657,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="112"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
@@ -11765,7 +11736,7 @@
     </row>
     <row r="4" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="80">
         <v>1</v>
@@ -11801,7 +11772,7 @@
     </row>
     <row r="5" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="80">
         <v>2</v>
@@ -11811,10 +11782,10 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G5" s="82" t="s">
         <v>58</v>
@@ -11831,23 +11802,23 @@
     </row>
     <row r="6" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="80">
         <v>3</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>59</v>
@@ -11861,23 +11832,23 @@
     </row>
     <row r="7" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="80">
         <v>4</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="69" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>59</v>
@@ -11891,23 +11862,23 @@
     </row>
     <row r="8" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="80">
         <v>5</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="93" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>122</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>59</v>
@@ -11921,23 +11892,23 @@
     </row>
     <row r="9" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" s="80">
         <v>6</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="81"/>
       <c r="E9" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>59</v>
@@ -11951,23 +11922,23 @@
     </row>
     <row r="10" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="80">
         <v>7</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F10" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>59</v>
@@ -11981,23 +11952,23 @@
     </row>
     <row r="11" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="80">
         <v>8</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="63" t="s">
         <v>59</v>
@@ -12011,23 +11982,23 @@
     </row>
     <row r="12" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" s="80">
         <v>9</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F12" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="63" t="s">
         <v>59</v>
@@ -12041,23 +12012,23 @@
     </row>
     <row r="13" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" s="80">
         <v>10</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="63" t="s">
         <v>59</v>
@@ -12071,23 +12042,23 @@
     </row>
     <row r="14" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14" s="80">
         <v>11</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F14" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>59</v>
@@ -12101,23 +12072,23 @@
     </row>
     <row r="15" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="80">
         <v>12</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F15" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>59</v>
@@ -12131,23 +12102,23 @@
     </row>
     <row r="16" spans="1:17" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="80">
         <v>13</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F16" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="63" t="s">
         <v>59</v>
@@ -12161,23 +12132,23 @@
     </row>
     <row r="17" spans="1:12" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B17" s="80">
         <v>14</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F17" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>59</v>
@@ -12191,23 +12162,23 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18" s="80">
         <v>15</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F18" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="63" t="s">
         <v>59</v>
@@ -12221,23 +12192,23 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="80">
         <v>16</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="63" t="s">
         <v>59</v>
@@ -12251,23 +12222,23 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B20" s="80">
         <v>17</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F20" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="63" t="s">
         <v>59</v>
@@ -12281,23 +12252,23 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="80">
         <v>18</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F21" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>59</v>
@@ -12311,23 +12282,23 @@
     </row>
     <row r="22" spans="1:12" s="66" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="80">
         <v>19</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F22" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="63" t="s">
         <v>59</v>
@@ -12341,23 +12312,23 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B23" s="80">
         <v>20</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F23" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="63" t="s">
         <v>59</v>
@@ -12371,23 +12342,23 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="80">
         <v>21</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F24" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="63" t="s">
         <v>59</v>
@@ -12401,23 +12372,23 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25" s="80">
         <v>22</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F25" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="63" t="s">
         <v>59</v>
@@ -12431,23 +12402,23 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B26" s="80">
         <v>23</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F26" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="63" t="s">
         <v>59</v>
@@ -12461,23 +12432,23 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" s="80">
         <v>24</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="63" t="s">
         <v>59</v>
@@ -12491,23 +12462,23 @@
     </row>
     <row r="28" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="80">
         <v>25</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="63" t="s">
         <v>59</v>
@@ -12521,23 +12492,23 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29" s="80">
         <v>26</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="63" t="s">
         <v>59</v>
@@ -12551,23 +12522,23 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="80">
         <v>27</v>
       </c>
-      <c r="C30" s="91" t="s">
-        <v>123</v>
+      <c r="C30" s="69" t="s">
+        <v>120</v>
       </c>
       <c r="D30" s="88"/>
-      <c r="E30" s="91" t="s">
-        <v>121</v>
+      <c r="E30" s="69" t="s">
+        <v>118</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="63" t="s">
         <v>59</v>
@@ -12581,23 +12552,23 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" s="80">
         <v>28</v>
       </c>
-      <c r="C31" s="91" t="s">
-        <v>124</v>
+      <c r="C31" s="69" t="s">
+        <v>121</v>
       </c>
       <c r="D31" s="88"/>
-      <c r="E31" s="91" t="s">
-        <v>121</v>
+      <c r="E31" s="69" t="s">
+        <v>118</v>
       </c>
       <c r="F31" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="63" t="s">
         <v>59</v>
@@ -12611,23 +12582,23 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" s="63">
         <v>29</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D32" s="63"/>
       <c r="E32" s="63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>59</v>
@@ -12641,22 +12612,24 @@
     </row>
     <row r="33" spans="1:12" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="92">
+        <v>87</v>
+      </c>
+      <c r="B33" s="91">
         <v>30</v>
       </c>
-      <c r="C33" s="130" t="s">
-        <v>126</v>
+      <c r="C33" s="84" t="s">
+        <v>123</v>
       </c>
       <c r="D33" s="86"/>
-      <c r="E33" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="131" t="s">
+      <c r="E33" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="132"/>
+      <c r="G33" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="H33" s="83" t="s">
         <v>59</v>
       </c>
@@ -12718,11 +12691,11 @@
     <col min="5" max="5" width="7.21875" style="13" customWidth="1"/>
     <col min="6" max="6" width="1.44140625" style="14" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="13" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="13" customWidth="1"/>
     <col min="11" max="11" width="3.21875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="13" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" style="13" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" style="13" customWidth="1"/>
     <col min="15" max="15" width="6.21875" style="13" customWidth="1"/>
@@ -12731,40 +12704,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
-      <c r="G1" s="119" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="G1" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="121"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="119"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="124"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
@@ -12806,16 +12779,16 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="18"/>
       <c r="G5" s="20"/>
       <c r="H5" s="47">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="48">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -12833,9 +12806,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="18"/>
       <c r="G6" s="20"/>
       <c r="H6" s="42"/>
@@ -12881,17 +12854,17 @@
       </c>
       <c r="E8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="113" t="s">
+      <c r="H8" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="113" t="s">
+      <c r="L8" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="114"/>
-      <c r="N8" s="115"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="113"/>
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12900,7 +12873,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="38">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="29">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -12908,28 +12881,28 @@
       </c>
       <c r="E9" s="18"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="127"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="125"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="52" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C10" s="39">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18"/>
       <c r="G10" s="33"/>
       <c r="H10" s="58" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="I10" s="59" t="s">
         <v>48</v>
@@ -12939,7 +12912,7 @@
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="57" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="M10" s="60" t="s">
         <v>48</v>
@@ -13018,7 +12991,7 @@
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="56" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="26"/>
@@ -13032,7 +13005,7 @@
       <c r="E14" s="18"/>
       <c r="G14" s="20"/>
       <c r="H14" s="59" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="26"/>
@@ -13287,7 +13260,7 @@
     <mergeCell ref="H8:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="202" priority="1">
       <formula>"&lt;25"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13304,7 +13277,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13319,10 +13292,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="129"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="75" t="s">
         <v>70</v>
       </c>
@@ -13344,7 +13317,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="77"/>
     </row>
@@ -13355,10 +13328,10 @@
       <c r="C4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="126" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="77" t="s">
@@ -13372,10 +13345,10 @@
       <c r="C5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="77" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -13390,7 +13363,7 @@
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="77" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -13398,7 +13371,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="77" t="s">
         <v>71</v>
@@ -13411,13 +13384,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="79" t="s">
         <v>78</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>79</v>
       </c>
       <c r="F8" s="77"/>
     </row>
@@ -13445,7 +13418,7 @@
   <dimension ref="C2:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13464,7 +13437,7 @@
     </row>
     <row r="3" spans="3:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="3:3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
@@ -13485,7 +13458,7 @@
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="74" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -13496,6 +13469,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13504,7 +13483,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -13618,13 +13597,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -13632,7 +13620,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13646,19 +13634,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>